--- a/時間.xlsx
+++ b/時間.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>101-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +90,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WebBrowser有些小問題</t>
+    <t>15(偏)30(正)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常方法需要多熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析圖片的黑白比例來判斷數字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Graphics與Chart繪製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart圖表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,15 +453,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,54 +499,83 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>15</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">

--- a/時間.xlsx
+++ b/時間.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>101-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>Chart圖表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75(自己),42(參考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,14 +461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
@@ -581,7 +589,12 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
